--- a/swa-semestral-project-scoreboard.xlsx
+++ b/swa-semestral-project-scoreboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\swa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E83CD4-93EB-41AA-BE27-A7C2774CA6F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C8723-4082-4CB7-AA68-A7BDEE9BFF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{864321B4-2EC7-40CC-95C6-43C5C970555B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{864321B4-2EC7-40CC-95C6-43C5C970555B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1470,9 +1469,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="10"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1487,10 +1483,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1506,7 +1505,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1804,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873DB46-5D9A-4BC0-9BA8-EB39F633CD5B}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,16 +1987,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -2088,16 +2087,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O22" s="17" t="s">
+      <c r="O22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -2292,10 +2291,12 @@
       <c r="K37" s="9">
         <v>0.5</v>
       </c>
-      <c r="L37" s="9"/>
+      <c r="L37" s="9">
+        <v>1</v>
+      </c>
       <c r="M37" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -2338,6 +2339,9 @@
       <c r="K41" s="8">
         <v>7</v>
       </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
       <c r="M41" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2357,16 +2361,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O42" s="17" t="s">
+      <c r="O42" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -2375,71 +2379,74 @@
       <c r="K43" s="8">
         <v>10</v>
       </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
       <c r="M43" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13" t="str">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N44" s="12"/>
-      <c r="O44" s="14" t="s">
+      <c r="N44" s="11"/>
+      <c r="O44" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K45" s="8">
         <f>SUM(K3:K44)</f>
         <v>60</v>
       </c>
-      <c r="L45" s="15" t="s">
+      <c r="L45" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M45" s="15">
         <f>SUM(M3:M44)</f>
-        <v>32</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/swa-semestral-project-scoreboard.xlsx
+++ b/swa-semestral-project-scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\swa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C8723-4082-4CB7-AA68-A7BDEE9BFF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE52361-8392-467E-9C0B-FD99CEC48705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{864321B4-2EC7-40CC-95C6-43C5C970555B}"/>
   </bookViews>
@@ -1480,11 +1480,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="10"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1803,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873DB46-5D9A-4BC0-9BA8-EB39F633CD5B}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1987,16 +1987,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="O15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -2087,16 +2087,16 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O22" s="16" t="s">
+      <c r="O22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -2340,11 +2340,11 @@
         <v>7</v>
       </c>
       <c r="L41" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2361,16 +2361,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O42" s="16" t="s">
+      <c r="O42" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -2380,15 +2380,15 @@
         <v>10</v>
       </c>
       <c r="L43" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="11"/>
@@ -2401,7 +2401,9 @@
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
+      <c r="L44" s="12">
+        <v>0</v>
+      </c>
       <c r="M44" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2428,25 +2430,25 @@
       </c>
       <c r="M45" s="15">
         <f>SUM(M3:M44)</f>
-        <v>32.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
